--- a/Delay Model/OutPut/3rd/main_pro4.xlsx
+++ b/Delay Model/OutPut/3rd/main_pro4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1759921\Documents\code\matlab\Optimization\Delay Model\OutPut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Yantong\Documents\Code\MATLAB\Optimization\Delay Model\OutPut\3rd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B71AB67-C752-49C9-8369-6513E5E70819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3060" windowHeight="8030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3060" windowHeight="8030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +58,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,11 +369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -384,10 +383,10 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>1026.4055062077964</v>
+        <v>1019.34591058674</v>
       </c>
       <c r="C1">
-        <v>11.610091984225621</v>
+        <v>9.8443438331496207</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -399,7 +398,7 @@
         <v>478.63971273411181</v>
       </c>
       <c r="G1">
-        <v>11.609963455797823</v>
+        <v>9.8418471971860697</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -429,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>11.320929594443806</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="R1">
         <v>0</v>
@@ -438,10 +437,10 @@
         <v>0</v>
       </c>
       <c r="T1">
-        <v>0.14211230539749939</v>
+        <v>7.6683791262189605E-2</v>
       </c>
       <c r="U1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="V1">
         <v>0</v>
@@ -471,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="AE1">
-        <v>11.40305300985715</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="AF1">
         <v>0</v>
@@ -480,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="AH1">
-        <v>5.0307908003918502</v>
+        <v>7.2666704065814098</v>
       </c>
       <c r="AI1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="AJ1">
         <v>0</v>
@@ -492,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="AL1">
-        <v>6.5013183859196984</v>
+        <v>5.3002636771840299</v>
       </c>
       <c r="AM1">
         <v>0</v>
@@ -504,7 +503,7 @@
         <v>8.5508381432847838</v>
       </c>
       <c r="AP1">
-        <v>6.5013183859197889</v>
+        <v>5.3002636771840299</v>
       </c>
       <c r="AQ1">
         <v>0</v>
@@ -515,10 +514,10 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>2052.8110124155928</v>
+        <v>2038.6918211734801</v>
       </c>
       <c r="C2">
-        <v>21.145037617166665</v>
+        <v>17.929144829437401</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -530,7 +529,7 @@
         <v>7200.9081139984091</v>
       </c>
       <c r="G2">
-        <v>21.145037617166665</v>
+        <v>17.924796232065741</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -560,22 +559,22 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>51.762773581360499</v>
+        <v>20.253541687368202</v>
       </c>
       <c r="R2">
-        <v>28.632481486751939</v>
+        <v>6.6279065549963399E-3</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>0.22617893588286361</v>
+        <v>0.16726544808655999</v>
       </c>
       <c r="U2">
-        <v>51.977995881125672</v>
+        <v>20.246477257311401</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>1.8169999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -602,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>30.290546378039807</v>
+        <v>20.114840305329302</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -611,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>23.296743284556843</v>
+        <v>14.1984993987165</v>
       </c>
       <c r="AI2">
-        <v>30.283901021604638</v>
+        <v>20.079943480384703</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -623,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>12.147499786197514</v>
+        <v>9.9033685267323435</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -635,7 +634,7 @@
         <v>7200.5203073248931</v>
       </c>
       <c r="AP2">
-        <v>12.14749978619742</v>
+        <v>9.9033685267323435</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -646,10 +645,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>3079.2165186233897</v>
+        <v>3058.0377317602201</v>
       </c>
       <c r="C3">
-        <v>34.338410134882402</v>
+        <v>29.115972251621983</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -661,7 +660,7 @@
         <v>7201.0278072651599</v>
       </c>
       <c r="G3">
-        <v>34.381989785775879</v>
+        <v>29.145853136844799</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -691,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>80.703374897733795</v>
+        <v>49.467965255749</v>
       </c>
       <c r="R3">
-        <v>46.293521552508096</v>
+        <v>19.386435361951101</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>0.21094381999460693</v>
+        <v>0.31517170159273</v>
       </c>
       <c r="U3">
-        <v>81.008248482393029</v>
+        <v>49.275678942887303</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>4.8369999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -733,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>48.045575769917619</v>
+        <v>37.525734731734502</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -742,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>28.569643033904612</v>
+        <v>36.946031845110603</v>
       </c>
       <c r="AI3">
-        <v>48.032850601891191</v>
+        <v>37.4635300481687</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -754,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>15.279700489623371</v>
+        <v>12.456925918102868</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -766,7 +765,7 @@
         <v>7200.6022625260694</v>
       </c>
       <c r="AP3">
-        <v>15.279700489623671</v>
+        <v>12.456925918102868</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -777,10 +776,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>4105.6220248311865</v>
+        <v>4077.3836423469602</v>
       </c>
       <c r="C4">
-        <v>49.444886594813646</v>
+        <v>41.924944702572212</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -792,7 +791,7 @@
         <v>7201.0969624772588</v>
       </c>
       <c r="G4">
-        <v>49.449597484429084</v>
+        <v>41.918769534202987</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -822,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>101.91531324166451</v>
+        <v>66.775252421099196</v>
       </c>
       <c r="R4">
-        <v>55.144293554561806</v>
+        <v>25.864093777962101</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>0.41203534617428239</v>
+        <v>0.390764333223243</v>
       </c>
       <c r="U4">
-        <v>103.15822773179072</v>
+        <v>66.710959661974698</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>6.71</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -864,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>64.282913506395403</v>
+        <v>45.453023335518587</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -873,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>37.677494604093496</v>
+        <v>44.112458972871899</v>
       </c>
       <c r="AI4">
-        <v>64.299594045787501</v>
+        <v>45.251080611681189</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -885,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>20.681192778312155</v>
+        <v>16.860545565824026</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -897,7 +896,7 @@
         <v>7200.7155828204804</v>
       </c>
       <c r="AP4">
-        <v>20.681192778312539</v>
+        <v>16.860545565824026</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -908,10 +907,10 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>5132.0275310389825</v>
+        <v>5096.7295529337007</v>
       </c>
       <c r="C5">
-        <v>62.236671064676258</v>
+        <v>52.771260539859718</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -923,7 +922,7 @@
         <v>7201.0969624772588</v>
       </c>
       <c r="G5">
-        <v>62.294101220683906</v>
+        <v>52.807145158914942</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -953,22 +952,22 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>136.65965405933272</v>
+        <v>90.658660073529703</v>
       </c>
       <c r="R5">
-        <v>77.252536549305717</v>
+        <v>38.852004902079301</v>
       </c>
       <c r="S5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T5">
-        <v>0.28581266277319445</v>
+        <v>0.50508602067277397</v>
       </c>
       <c r="U5">
-        <v>140.2285994695026</v>
+        <v>90.433638666389399</v>
       </c>
       <c r="V5">
-        <v>14</v>
+        <v>10.638</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -995,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>92.629829517165319</v>
+        <v>64.492862686308982</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1004,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>25.142456198437376</v>
+        <v>67.639649469906601</v>
       </c>
       <c r="AI5">
-        <v>92.651349655829208</v>
+        <v>64.314670167529385</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1016,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>24.923394210603647</v>
+        <v>20.319041955043993</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1028,7 +1027,7 @@
         <v>7200.7155828204804</v>
       </c>
       <c r="AP5">
-        <v>24.923966490079255</v>
+        <v>20.319041955043993</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1039,10 +1038,10 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>6158.4330372467784</v>
+        <v>6116.0754635204403</v>
       </c>
       <c r="C6">
-        <v>77.522131612553764</v>
+        <v>65.731995862697573</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1054,7 +1053,7 @@
         <v>7201.0969624772588</v>
       </c>
       <c r="G6">
-        <v>78.366747915564332</v>
+        <v>66.43204014050734</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1084,22 +1083,22 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>195.16089385422535</v>
+        <v>113.759062759979</v>
       </c>
       <c r="R6">
-        <v>123.66581315456266</v>
+        <v>51.830866084265097</v>
       </c>
       <c r="S6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="T6">
-        <v>0.56816164850205997</v>
+        <v>0.53122920989296996</v>
       </c>
       <c r="U6">
-        <v>201.94817901329807</v>
+        <v>113.590160974594</v>
       </c>
       <c r="V6">
-        <v>22</v>
+        <v>13.015000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1126,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>105.80798314672111</v>
+        <v>74.820632948043482</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1135,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>93.877766646528016</v>
+        <v>152.05988222429099</v>
       </c>
       <c r="AI6">
-        <v>105.70121201091399</v>
+        <v>74.61033971834209</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1147,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>29.02218482651859</v>
+        <v>23.660621267475019</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1159,7 +1158,7 @@
         <v>7200.7155828204804</v>
       </c>
       <c r="AP6">
-        <v>29.022875724300228</v>
+        <v>23.660621267475019</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -1170,10 +1169,10 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <v>7184.8385434545744</v>
+        <v>7135.4213741071799</v>
       </c>
       <c r="C7">
-        <v>88.662179048578537</v>
+        <v>75.177782978495287</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1185,7 +1184,7 @@
         <v>7201.0969624772588</v>
       </c>
       <c r="G7">
-        <v>90.527354853677664</v>
+        <v>76.740671667696574</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1215,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>228.89806085565004</v>
+        <v>143.187766302722</v>
       </c>
       <c r="R7">
-        <v>145.91181544394794</v>
+        <v>71.377829141928899</v>
       </c>
       <c r="S7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="T7">
-        <v>0.46533108736191658</v>
+        <v>0.61413877401380801</v>
       </c>
       <c r="U7">
-        <v>242.27533394250142</v>
+        <v>142.56383066544501</v>
       </c>
       <c r="V7">
-        <v>26</v>
+        <v>17.164000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1257,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>144.52732149466337</v>
+        <v>96.40189755638346</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1266,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>41.914484410751079</v>
+        <v>175.443209526353</v>
       </c>
       <c r="AI7">
-        <v>144.3619832809899</v>
+        <v>96.162266072086467</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1278,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>33.341670299544944</v>
+        <v>27.182124230072496</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -1290,7 +1289,7 @@
         <v>7200.7155828204804</v>
       </c>
       <c r="AP7">
-        <v>33.341919853208267</v>
+        <v>27.182124230072496</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -1301,10 +1300,10 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <v>8211.2440496623713</v>
+        <v>8154.7672846939204</v>
       </c>
       <c r="C8">
-        <v>105.66259952347416</v>
+        <v>89.59265451356795</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1316,7 +1315,7 @@
         <v>7201.0969624772588</v>
       </c>
       <c r="G8">
-        <v>106.72917014444535</v>
+        <v>90.475063771156542</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1346,22 +1345,22 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>273.21064373738017</v>
+        <v>161.20923025590201</v>
       </c>
       <c r="R8">
-        <v>176.96939898431165</v>
+        <v>77.975830630283397</v>
       </c>
       <c r="S8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="T8">
-        <v>0.53853934489087019</v>
+        <v>0.75364049095072305</v>
       </c>
       <c r="U8">
-        <v>295.76342328456195</v>
+        <v>160.70073203562399</v>
       </c>
       <c r="V8">
-        <v>32</v>
+        <v>19.231999999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1388,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>166.08780389576845</v>
+        <v>133.11804219074116</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1397,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>70.119300733752269</v>
+        <v>126.961519437812</v>
       </c>
       <c r="AI8">
-        <v>166.16228681674826</v>
+        <v>132.97692926308517</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1409,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>42.781740235582689</v>
+        <v>34.878233976123596</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1421,7 +1420,7 @@
         <v>7200.7155828204804</v>
       </c>
       <c r="AP8">
-        <v>42.782384635737827</v>
+        <v>34.878233976123596</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -1432,10 +1431,10 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <v>9237.6495558701681</v>
+        <v>9174.1131952806609</v>
       </c>
       <c r="C9">
-        <v>113.25469311892428</v>
+        <v>96.030086694864252</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1447,7 +1446,7 @@
         <v>7201.0969624772588</v>
       </c>
       <c r="G9">
-        <v>115.31486200136445</v>
+        <v>97.753214788567817</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1477,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>314.53617943896609</v>
+        <v>203.661816570805</v>
       </c>
       <c r="R9">
-        <v>199.32662509773166</v>
+        <v>97.610691986962905</v>
       </c>
       <c r="S9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T9">
-        <v>0.55113311192196668</v>
+        <v>0.86256168884014695</v>
       </c>
       <c r="U9">
-        <v>394.25606285711484</v>
+        <v>202.56558303141699</v>
       </c>
       <c r="V9">
-        <v>36</v>
+        <v>23.545000000000002</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1519,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>196.56122898837469</v>
+        <v>150.77860355326013</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1528,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>83.856008087317548</v>
+        <v>199.22576614260501</v>
       </c>
       <c r="AI9">
-        <v>196.5308189270921</v>
+        <v>151.10371871304713</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1540,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>51.557286290819604</v>
+        <v>42.032584100671137</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1552,7 +1551,7 @@
         <v>7200.7155828204804</v>
       </c>
       <c r="AP9">
-        <v>51.55801778768857</v>
+        <v>42.032584100671137</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -1563,10 +1562,10 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>10264.055062077965</v>
+        <v>10193.459105867401</v>
       </c>
       <c r="C10">
-        <v>127.99838860212473</v>
+        <v>108.53145256733809</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1578,7 +1577,7 @@
         <v>7201.0969624772588</v>
       </c>
       <c r="G10">
-        <v>129.1541247167342</v>
+        <v>109.48485455513104</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1608,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>395.40496931450184</v>
+        <v>487.54844900466099</v>
       </c>
       <c r="R10">
-        <v>221.6914541610609</v>
+        <v>117.249970894901</v>
       </c>
       <c r="S10">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T10">
-        <v>0.51806533569535795</v>
+        <v>0.78178190081430099</v>
       </c>
       <c r="U10">
-        <v>1697.5662722128923</v>
+        <v>486.79864249065099</v>
       </c>
       <c r="V10">
-        <v>40</v>
+        <v>28.087</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1650,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>214.70345496502958</v>
+        <v>178.98216586037168</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1659,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>152.21685798383675</v>
+        <v>100.36494351411901</v>
       </c>
       <c r="AI10">
-        <v>214.92383835912298</v>
+        <v>178.48695631510566</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1671,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>60.036168398335462</v>
+        <v>48.945076027681175</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -1683,7 +1682,7 @@
         <v>7200.7155828204804</v>
       </c>
       <c r="AP10">
-        <v>60.036967117524334</v>
+        <v>48.945076027681175</v>
       </c>
       <c r="AQ10">
         <v>0</v>

--- a/Delay Model/OutPut/3rd/main_pro4.xlsx
+++ b/Delay Model/OutPut/3rd/main_pro4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Yantong\Documents\Code\MATLAB\Optimization\Delay Model\OutPut\3rd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1759921\Documents\code\matlab\Optimization\Delay Model\OutPut\3rd\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA1CC9D2-CFB5-42BA-8B72-73C3A12102D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3060" windowHeight="8030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3060" windowHeight="8030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,7 +59,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,11 +370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -383,7 +384,7 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>1019.34591058674</v>
+        <v>101.934591058674</v>
       </c>
       <c r="C1">
         <v>9.8443438331496207</v>
@@ -514,7 +515,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>2038.6918211734801</v>
+        <v>203.869182117348</v>
       </c>
       <c r="C2">
         <v>17.929144829437401</v>
@@ -645,7 +646,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>3058.0377317602201</v>
+        <v>305.80377317602199</v>
       </c>
       <c r="C3">
         <v>29.115972251621983</v>
@@ -776,7 +777,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>4077.3836423469602</v>
+        <v>407.73836423469601</v>
       </c>
       <c r="C4">
         <v>41.924944702572212</v>
@@ -907,7 +908,7 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>5096.7295529337007</v>
+        <v>509.67295529337008</v>
       </c>
       <c r="C5">
         <v>52.771260539859718</v>
@@ -1038,7 +1039,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>6116.0754635204403</v>
+        <v>611.60754635204398</v>
       </c>
       <c r="C6">
         <v>65.731995862697573</v>
@@ -1169,7 +1170,7 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <v>7135.4213741071799</v>
+        <v>713.54213741071794</v>
       </c>
       <c r="C7">
         <v>75.177782978495287</v>
@@ -1300,7 +1301,7 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <v>8154.7672846939204</v>
+        <v>815.47672846939201</v>
       </c>
       <c r="C8">
         <v>89.59265451356795</v>
@@ -1431,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <v>9174.1131952806609</v>
+        <v>917.41131952806609</v>
       </c>
       <c r="C9">
         <v>96.030086694864252</v>
@@ -1562,7 +1563,7 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>10193.459105867401</v>
+        <v>1019.3459105867402</v>
       </c>
       <c r="C10">
         <v>108.53145256733809</v>
